--- a/dataset_back/上网.xlsx
+++ b/dataset_back/上网.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30683" windowHeight="5195" tabRatio="390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>wangqianru</author>
   </authors>
   <commentList>
-    <comment ref="BP3" authorId="0">
+    <comment ref="BR4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,6 +421,9 @@
     <t>注明内容</t>
   </si>
   <si>
+    <t>GPRS总流量（KB）</t>
+  </si>
+  <si>
     <t>学习强国</t>
   </si>
   <si>
@@ -455,9 +458,6 @@
   </si>
   <si>
     <t>外省流量占比</t>
-  </si>
-  <si>
-    <t>GPRS总流量（KB）</t>
   </si>
   <si>
     <t>GPRS-国内漫游-流量（KB）</t>
@@ -1116,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,26 +1132,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1472,13 +1478,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DU3"/>
+  <dimension ref="A1:DU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="6" width="8.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="6.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="4.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="6.77777777777778" customWidth="1"/>
+    <col min="10" max="12" width="4.77777777777778" customWidth="1"/>
+    <col min="13" max="26" width="8.77777777777778" customWidth="1"/>
+    <col min="27" max="27" width="7.77777777777778" customWidth="1"/>
+    <col min="28" max="28" width="6.77777777777778" customWidth="1"/>
+    <col min="29" max="29" width="4.77777777777778" customWidth="1"/>
+    <col min="30" max="30" width="8.77777777777778" customWidth="1"/>
+    <col min="31" max="31" width="6.77777777777778" customWidth="1"/>
+    <col min="32" max="32" width="8.77777777777778" customWidth="1"/>
+    <col min="33" max="35" width="4.77777777777778" customWidth="1"/>
+    <col min="36" max="43" width="8.77777777777778" customWidth="1"/>
+    <col min="44" max="44" width="6.77777777777778" customWidth="1"/>
+    <col min="45" max="48" width="8.77777777777778" customWidth="1"/>
+    <col min="49" max="49" width="6.77777777777778" customWidth="1"/>
+    <col min="50" max="52" width="8.77777777777778" customWidth="1"/>
+    <col min="53" max="53" width="4.77777777777778" customWidth="1"/>
+    <col min="54" max="54" width="6.77777777777778" customWidth="1"/>
+    <col min="55" max="57" width="4.77777777777778" customWidth="1"/>
+    <col min="58" max="59" width="8.77777777777778" customWidth="1"/>
+    <col min="60" max="60" width="6.77777777777778" customWidth="1"/>
+    <col min="61" max="69" width="8.77777777777778" customWidth="1"/>
+    <col min="70" max="70" width="25.4444444444444" customWidth="1"/>
+    <col min="71" max="71" width="27.6666666666667" customWidth="1"/>
+    <col min="72" max="72" width="16.4444444444444" customWidth="1"/>
+    <col min="73" max="74" width="18.6666666666667" customWidth="1"/>
+    <col min="75" max="75" width="25.4444444444444" customWidth="1"/>
+    <col min="76" max="77" width="5.66666666666667" customWidth="1"/>
+    <col min="78" max="78" width="18.6666666666667" customWidth="1"/>
+    <col min="79" max="80" width="19.7777777777778" customWidth="1"/>
+    <col min="81" max="81" width="18.6666666666667" customWidth="1"/>
+    <col min="82" max="82" width="19.7777777777778" customWidth="1"/>
+    <col min="83" max="83" width="20.8888888888889" customWidth="1"/>
+    <col min="84" max="84" width="18.6666666666667" customWidth="1"/>
+    <col min="85" max="85" width="14.1111111111111" customWidth="1"/>
+    <col min="86" max="87" width="18.6666666666667" customWidth="1"/>
+    <col min="88" max="88" width="17.5555555555556" customWidth="1"/>
+    <col min="89" max="91" width="15.2222222222222" customWidth="1"/>
+    <col min="92" max="92" width="22" customWidth="1"/>
+    <col min="93" max="93" width="19.7777777777778" customWidth="1"/>
+    <col min="94" max="94" width="16.4444444444444" customWidth="1"/>
+    <col min="95" max="95" width="18.6666666666667" customWidth="1"/>
+    <col min="96" max="96" width="14.1111111111111" customWidth="1"/>
+    <col min="97" max="98" width="18.6666666666667" customWidth="1"/>
+    <col min="99" max="104" width="16.4444444444444" customWidth="1"/>
+    <col min="105" max="108" width="9.66666666666667" customWidth="1"/>
+    <col min="109" max="109" width="14.1111111111111" customWidth="1"/>
+    <col min="110" max="110" width="16.4444444444444" customWidth="1"/>
+    <col min="111" max="111" width="27.6666666666667" customWidth="1"/>
+    <col min="112" max="112" width="18.6666666666667" customWidth="1"/>
+    <col min="113" max="113" width="23.1111111111111" customWidth="1"/>
+    <col min="114" max="114" width="25.4444444444444" customWidth="1"/>
+    <col min="115" max="115" width="20.8888888888889" customWidth="1"/>
+    <col min="116" max="117" width="14.1111111111111" customWidth="1"/>
+    <col min="118" max="118" width="11.8888888888889" customWidth="1"/>
+    <col min="119" max="119" width="8.66666666666667" customWidth="1"/>
+    <col min="120" max="120" width="40" customWidth="1"/>
+    <col min="121" max="121" width="24.2222222222222" customWidth="1"/>
+    <col min="122" max="122" width="20.8888888888889" customWidth="1"/>
+    <col min="123" max="124" width="19.7777777777778" customWidth="1"/>
+    <col min="125" max="125" width="14.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="57.6" spans="1:125">
       <c r="A1" s="1" t="s">
@@ -1520,7 +1592,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1538,7 +1610,7 @@
       <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1559,7 +1631,7 @@
       <c r="Z1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -1592,7 +1664,7 @@
       <c r="AK1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AM1" s="2" t="s">
@@ -1631,7 +1703,7 @@
       <c r="AX1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AZ1" s="2" t="s">
@@ -1664,28 +1736,28 @@
       <c r="BI1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>56</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>63</v>
       </c>
       <c r="BR1" s="1" t="s">
@@ -1857,267 +1929,269 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="72" spans="1:87">
+    <row r="3" s="1" customFormat="1" ht="57.6" spans="1:125">
       <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="4" t="e">
+      <c r="AA3" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="DD3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="DG3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN3" s="7" t="s">
+      <c r="DO3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="DU3" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="36:111">
+      <c r="AJ4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BH4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BP3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
+      <c r="BR4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BR3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS3" s="9" t="s">
+      <c r="BS4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BT3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU3" s="9" t="s">
+      <c r="BU4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BV3" s="9" t="s">
+      <c r="BW4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BW3" s="9" t="s">
+      <c r="BX4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BX3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="BY4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="CA3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB3" s="9" t="s">
+      <c r="CB4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="CC3" s="9" t="s">
+      <c r="CD4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="CD3" s="10" t="s">
+      <c r="CE4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="CE3" s="9" t="s">
+      <c r="CF4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="CF3" s="9" t="s">
+      <c r="DG4" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="CI3" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
